--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/GradeDataSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/GradeDataSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.257.54764"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>eng_Name</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>255, 255, 0, 255</t>
+  </si>
+  <si>
+    <t>lo_ko</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000" customHeight="1"/>
@@ -1226,30 +1229,18 @@
     <col min="3" max="3" width="15.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:3">
       <c r="A2" s="0" t="s">
         <v>68</v>
       </c>
@@ -1260,7 +1251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:3">
       <c r="A3" s="0" t="s">
         <v>78</v>
       </c>
@@ -1271,7 +1262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:3">
       <c r="A4" s="0" t="s">
         <v>77</v>
       </c>
@@ -1282,7 +1273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:3">
       <c r="A5" s="0" t="s">
         <v>80</v>
       </c>
